--- a/RPL_V2/xlsx/logo_hidden.xlsx
+++ b/RPL_V2/xlsx/logo_hidden.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="93">
   <si>
     <t>type</t>
   </si>
@@ -127,6 +127,63 @@
     <t>logo_zvezda_irk</t>
   </si>
   <si>
+    <t>«Лада-Тольятти» — советский и российский футбольный клуб из города Тольятти, Самарская область. В 2010 и 2022 годах был расформирован, но в обоих случаях спустя два года возобновлял активную деятельность.</t>
+  </si>
+  <si>
+    <t>«Жемчужина» — российский футбольный клуб из города Сочи. Выступал на профессиональном уровне с 1991 по 2003 и с 2008 по 2011 годы.</t>
+  </si>
+  <si>
+    <t>«Тосно» — российский футбольный клуб из Тосно, Ленинградская область. Основан в 2013 году. Обладатель Кубка России сезона 2017/18. Расформирован в 2018 году. Возрождён в 2023.</t>
+  </si>
+  <si>
+    <t>«Уралан» — российский футбольный клуб из Элисты. По окончании сезона 2004 года, по итогам которого клуб вылетел во Второй дивизион, отказался от участия в соревнованиях  и был лишён лицензии.</t>
+  </si>
+  <si>
+    <t>«Лада» — российский футбольный клуб из города Димитровграда Ульяновской области, существовавший с 2017 до 2021 года. В сезонах 2019/20 и 2020/21 выступал в Первенстве ПФЛ.</t>
+  </si>
+  <si>
+    <t>«Бештау» — бывший российский футбольный клуб из города Лермонтова, существовавший с 1992 по 2000 год. Лучшее достижение в первенстве России — 10 место в 1 зоне второй лиги в 1992 году.</t>
+  </si>
+  <si>
+    <t>«Саранск» — бывший российский профессиональный футбольный клуб из одноимённого города, выступавший во Втором дивизионе ФНЛ в сезоне 2021/22, по завершении которого был расформирован.</t>
+  </si>
+  <si>
+    <t>«Асмарал» — бывший советский и российский футбольный клуб из Москвы. Один из основателей Чемпионата России по футболу. В 2003 году клуб «Асмарал» был официально объявлен банкротом.</t>
+  </si>
+  <si>
+    <t>«Текстильщик» — советский и российский футбольный клуб из города Камышина. С 1987 по 2008 год выступал в различных дивизионах чемпионата России. С 2009 участвует в первенстве Волгоградской области.</t>
+  </si>
+  <si>
+    <t>«Арарат» — российский футбольный клуб из Москвы. Основан в 2017 году, расформирован 5 февраля 2020 года.</t>
+  </si>
+  <si>
+    <t>«Автодор» — российский футбольный клуб из Владикавказа. В марте 2011 года ФК «Автодор» не смог пройти процедуру аттестации и снялся с первенства России по футболу среди команд второго дивизиона.</t>
+  </si>
+  <si>
+    <t>«Кайрат» — российский футбольный клуб из Москвы, являвшийся фарм-клубом казахстанского «Кайрата». 11 июня 2022 года стало известно об объединении Кайрат-Москва с Кайрат-Жастар по финансовым причинам.</t>
+  </si>
+  <si>
+    <t>«Кубань» — советский и российский футбольный клуб из Краснодара, существовавший с 1928 по 2018 год. На момент до расформирования был одним из старейших футбольных клубов России.</t>
+  </si>
+  <si>
+    <t>«Луч» — бывший российский футбольный клуб из Владивостока. Основан в 1958 году. 1 апреля 2020 года было объявлено о прекращении выступлений в профессиональном футболе.</t>
+  </si>
+  <si>
+    <t>«Ессентуки» — российский профессиональный футбольный клуб из одноимённого города Ставропольского края, основанный в 2016 году. С сезона 2020/21 выступал в группе 1 третьего по уровню дивизиона России.</t>
+  </si>
+  <si>
+    <t>«Звезда́» — бывший советский и российский футбольный клуб из Перми. «Звезда» существовала с 1932 по 1996 года. Сезон 1996 года команда играла в первенстве Пермской области, после чего прекратила существование.</t>
+  </si>
+  <si>
+    <t>«Волга» — бывший российский футбольный клуб из Нижнего Новгорода. Клуб был основан в 1998 году. 15 июня 2016 года руководство клуба приняло решение о расформировании клуба.</t>
+  </si>
+  <si>
+    <t>«Тамбов» — российский футбольный клуб из Тамбова. В 2021 году Тамбов потерял шансы на сохранение прописки в РПЛ и руководство клуба объявило о том, что клуб лишится профессионального статуса</t>
+  </si>
+  <si>
+    <t>«Звезда» — российский футбольный клуб из города Иркутска. Существовал в 1957—2008 годах.</t>
+  </si>
+  <si>
     <t>logo_lada</t>
   </si>
   <si>
@@ -196,7 +253,7 @@
     <t>Лада Димитровград</t>
   </si>
   <si>
-    <t>Баштау</t>
+    <t>Бештау</t>
   </si>
   <si>
     <t>Саранск</t>
@@ -662,44 +719,47 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -712,44 +772,47 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -762,44 +825,47 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -812,44 +878,47 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -862,44 +931,47 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -912,44 +984,47 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q7" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -962,44 +1037,47 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1012,44 +1090,47 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1062,44 +1143,47 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q10" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1112,44 +1196,47 @@
       <c r="C11" t="s">
         <v>27</v>
       </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1162,44 +1249,47 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N12" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1212,44 +1302,47 @@
       <c r="C13" t="s">
         <v>29</v>
       </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M13" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="N13" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1262,44 +1355,47 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M14" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="N14" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q14" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1312,44 +1408,47 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="N15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q15" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1362,44 +1461,47 @@
       <c r="C16" t="s">
         <v>32</v>
       </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1412,44 +1514,47 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="N17" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O17" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q17" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1462,44 +1567,47 @@
       <c r="C18" t="s">
         <v>34</v>
       </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O18" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="P18" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q18" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1512,44 +1620,47 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
       <c r="E19" t="s">
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="P19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q19" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1562,44 +1673,47 @@
       <c r="C20" t="s">
         <v>36</v>
       </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="N20" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q20" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
